--- a/Data/Datas/J_角色/角色列表/角色_战斗杂兵.xlsx
+++ b/Data/Datas/J_角色/角色列表/角色_战斗杂兵.xlsx
@@ -1193,7 +1193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,9 +1213,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1253,9 +1250,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="38" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1652,1026 +1646,1026 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
-    <col min="2" max="2" width="20.75" style="8" customWidth="1"/>
-    <col min="3" max="3" width="24.875" style="8" customWidth="1"/>
-    <col min="4" max="4" width="24.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="8" customWidth="1"/>
-    <col min="6" max="6" width="14.125" style="8" customWidth="1"/>
-    <col min="7" max="7" width="25.625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="3.81666666666667" style="8" customWidth="1"/>
-    <col min="9" max="9" width="4.4" style="8" customWidth="1"/>
-    <col min="10" max="10" width="14.25" style="8" customWidth="1"/>
-    <col min="11" max="11" width="12.25" style="8" customWidth="1"/>
-    <col min="12" max="12" width="14.875" style="8" customWidth="1"/>
-    <col min="13" max="13" width="20.875" style="8" customWidth="1"/>
-    <col min="14" max="14" width="17.25" style="9" customWidth="1"/>
-    <col min="15" max="18" width="40.75" style="8" customWidth="1"/>
-    <col min="19" max="19" width="45.5" style="8" customWidth="1"/>
-    <col min="20" max="20" width="55.375" style="8" customWidth="1"/>
-    <col min="21" max="21" width="14.625" style="8" customWidth="1"/>
-    <col min="22" max="22" width="19.375" style="7" customWidth="1"/>
-    <col min="23" max="23" width="43.125" style="10" customWidth="1"/>
-    <col min="24" max="24" width="9" style="7" customWidth="1"/>
-    <col min="25" max="25" width="12.375" style="7" customWidth="1"/>
-    <col min="26" max="26" width="18" style="7" customWidth="1"/>
-    <col min="27" max="27" width="9" style="7" customWidth="1"/>
-    <col min="28" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="2" width="20.75" style="7" customWidth="1"/>
+    <col min="3" max="3" width="24.875" style="7" customWidth="1"/>
+    <col min="4" max="4" width="24.5" style="7" customWidth="1"/>
+    <col min="5" max="5" width="20.5" style="7" customWidth="1"/>
+    <col min="6" max="6" width="14.125" style="7" customWidth="1"/>
+    <col min="7" max="7" width="25.625" style="7" customWidth="1"/>
+    <col min="8" max="8" width="3.81666666666667" style="7" customWidth="1"/>
+    <col min="9" max="9" width="4.4" style="7" customWidth="1"/>
+    <col min="10" max="10" width="14.25" style="7" customWidth="1"/>
+    <col min="11" max="11" width="12.25" style="7" customWidth="1"/>
+    <col min="12" max="12" width="14.875" style="7" customWidth="1"/>
+    <col min="13" max="13" width="20.875" style="7" customWidth="1"/>
+    <col min="14" max="14" width="17.25" style="8" customWidth="1"/>
+    <col min="15" max="18" width="40.75" style="7" customWidth="1"/>
+    <col min="19" max="19" width="45.5" style="7" customWidth="1"/>
+    <col min="20" max="20" width="55.375" style="7" customWidth="1"/>
+    <col min="21" max="21" width="14.625" style="7" customWidth="1"/>
+    <col min="22" max="22" width="19.375" style="5" customWidth="1"/>
+    <col min="23" max="23" width="43.125" style="9" customWidth="1"/>
+    <col min="24" max="24" width="9" style="5" customWidth="1"/>
+    <col min="25" max="25" width="12.375" style="5" customWidth="1"/>
+    <col min="26" max="26" width="18" style="5" customWidth="1"/>
+    <col min="27" max="27" width="9" style="5" customWidth="1"/>
+    <col min="28" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="30" customHeight="1" spans="1:26">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11" t="s">
+      <c r="D1" s="10"/>
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11" t="s">
+      <c r="I1" s="10"/>
+      <c r="J1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="L1" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="11" t="s">
+      <c r="M1" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="P1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="11" t="s">
+      <c r="Q1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="R1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="S1" s="11" t="s">
+      <c r="S1" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="T1" s="11" t="s">
+      <c r="T1" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="U1" s="11" t="s">
+      <c r="U1" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="V1" s="11" t="s">
+      <c r="V1" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="W1" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
     </row>
     <row r="2" s="2" customFormat="1" ht="30" customHeight="1" spans="1:26">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12" t="s">
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="K2" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="L2" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="M2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="N2" s="17" t="s">
+      <c r="N2" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="O2" s="12" t="s">
+      <c r="O2" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P2" s="12" t="s">
+      <c r="P2" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="Q2" s="12" t="s">
+      <c r="Q2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="17" t="s">
+      <c r="W2" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="Y2" s="12"/>
-      <c r="Z2" s="12"/>
+      <c r="Y2" s="11"/>
+      <c r="Z2" s="11"/>
     </row>
     <row r="3" s="3" customFormat="1" ht="30" customHeight="1" spans="1:26">
       <c r="A3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="13"/>
-      <c r="E3" s="13" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="N3" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="13" t="s">
+      <c r="P3" s="12"/>
+      <c r="Q3" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="13" t="s">
+      <c r="R3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="W3" s="18" t="s">
+      <c r="W3" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="Y3" s="13"/>
-      <c r="Z3" s="13"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="12"/>
     </row>
     <row r="4" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="14" t="s">
+      <c r="C4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="14" t="s">
+      <c r="D4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="14" t="b">
+      <c r="G4" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14">
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13">
         <v>1</v>
       </c>
-      <c r="K4" s="14">
+      <c r="K4" s="13">
         <v>1</v>
       </c>
-      <c r="L4" s="14" t="s">
+      <c r="L4" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="M4" s="14" t="s">
+      <c r="M4" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="19" t="s">
+      <c r="N4" s="18" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="19" t="s">
+      <c r="O4" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="P4" s="19" t="s">
+      <c r="P4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19" t="s">
+      <c r="Q4" s="18"/>
+      <c r="R4" s="18"/>
+      <c r="S4" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="T4" s="22" t="s">
+      <c r="T4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="U4" s="14" t="s">
+      <c r="U4" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="W4" s="19" t="s">
+      <c r="W4" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="Y4" s="14"/>
-      <c r="Z4" s="14"/>
+      <c r="Y4" s="13"/>
+      <c r="Z4" s="13"/>
     </row>
     <row r="5" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D5" s="14" t="s">
+      <c r="D5" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="14" t="b">
+      <c r="G5" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14">
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13">
         <v>1</v>
       </c>
-      <c r="K5" s="14">
+      <c r="K5" s="13">
         <v>1</v>
       </c>
-      <c r="L5" s="14" t="s">
+      <c r="L5" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="14" t="s">
+      <c r="M5" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="19" t="s">
+      <c r="N5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="O5" s="19" t="s">
+      <c r="O5" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="P5" s="19" t="s">
+      <c r="P5" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="S5" s="19" t="s">
+      <c r="Q5" s="18"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="T5" s="22" t="s">
+      <c r="T5" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V5" s="8" t="s">
+      <c r="V5" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="W5" s="19" t="s">
+      <c r="W5" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
+      <c r="Y5" s="13"/>
+      <c r="Z5" s="13"/>
     </row>
     <row r="6" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G6" s="14" t="b">
+      <c r="G6" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14">
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13">
         <v>1</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>1</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="M6" s="14" t="s">
+      <c r="M6" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="O6" s="19" t="s">
+      <c r="O6" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="P6" s="19" t="s">
+      <c r="P6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19" t="s">
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="T6" s="22" t="s">
+      <c r="T6" s="20" t="s">
         <v>83</v>
       </c>
-      <c r="U6" s="14" t="s">
+      <c r="U6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V6" s="8" t="s">
+      <c r="V6" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="W6" s="19" t="s">
+      <c r="W6" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Y6" s="14"/>
-      <c r="Z6" s="14"/>
+      <c r="Y6" s="13"/>
+      <c r="Z6" s="13"/>
     </row>
     <row r="7" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="14" t="b">
+      <c r="G7" s="13" t="b">
         <v>1</v>
       </c>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14">
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13">
         <v>1</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>1</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="Q7" s="19"/>
-      <c r="R7" s="19"/>
-      <c r="S7" s="19" t="s">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="T7" s="22" t="s">
+      <c r="T7" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="U7" s="14" t="s">
+      <c r="U7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="V7" s="8" t="s">
+      <c r="V7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="W7" s="19" t="s">
+      <c r="W7" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="Y7" s="14"/>
-      <c r="Z7" s="14"/>
+      <c r="Y7" s="13"/>
+      <c r="Z7" s="13"/>
     </row>
     <row r="8" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N8" s="20"/>
-      <c r="W8" s="20"/>
+      <c r="N8" s="9"/>
+      <c r="W8" s="9"/>
     </row>
     <row r="9" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N9" s="20"/>
-      <c r="W9" s="20"/>
+      <c r="N9" s="9"/>
+      <c r="W9" s="9"/>
     </row>
     <row r="10" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N10" s="20"/>
-      <c r="W10" s="20"/>
+      <c r="N10" s="9"/>
+      <c r="W10" s="9"/>
     </row>
     <row r="11" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N11" s="20"/>
-      <c r="W11" s="20"/>
+      <c r="N11" s="9"/>
+      <c r="W11" s="9"/>
     </row>
     <row r="12" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N12" s="20"/>
-      <c r="W12" s="20"/>
+      <c r="N12" s="9"/>
+      <c r="W12" s="9"/>
     </row>
     <row r="13" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N13" s="20"/>
-      <c r="W13" s="20"/>
+      <c r="N13" s="9"/>
+      <c r="W13" s="9"/>
     </row>
     <row r="14" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N14" s="20"/>
-      <c r="W14" s="20"/>
+      <c r="N14" s="9"/>
+      <c r="W14" s="9"/>
     </row>
     <row r="15" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N15" s="20"/>
-      <c r="W15" s="20"/>
+      <c r="N15" s="9"/>
+      <c r="W15" s="9"/>
     </row>
     <row r="16" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N16" s="20"/>
-      <c r="W16" s="20"/>
+      <c r="N16" s="9"/>
+      <c r="W16" s="9"/>
     </row>
     <row r="17" s="5" customFormat="1" ht="102" customHeight="1" spans="14:23">
-      <c r="N17" s="20"/>
-      <c r="W17" s="20"/>
+      <c r="N17" s="9"/>
+      <c r="W17" s="9"/>
     </row>
     <row r="18" ht="102" customHeight="1" spans="9:26">
-      <c r="I18" s="9"/>
-      <c r="O18" s="9"/>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-      <c r="R18" s="9"/>
-      <c r="S18" s="9"/>
-      <c r="T18" s="9"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="9"/>
-      <c r="Y18" s="8"/>
-      <c r="Z18" s="8"/>
+      <c r="I18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="V18" s="7"/>
+      <c r="W18" s="8"/>
+      <c r="Y18" s="7"/>
+      <c r="Z18" s="7"/>
     </row>
     <row r="19" ht="102" customHeight="1" spans="9:26">
-      <c r="I19" s="9"/>
-      <c r="O19" s="9"/>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-      <c r="R19" s="9"/>
-      <c r="S19" s="9"/>
-      <c r="T19" s="9"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="9"/>
-      <c r="Y19" s="8"/>
-      <c r="Z19" s="8"/>
+      <c r="I19" s="8"/>
+      <c r="O19" s="8"/>
+      <c r="P19" s="8"/>
+      <c r="Q19" s="8"/>
+      <c r="R19" s="8"/>
+      <c r="S19" s="8"/>
+      <c r="T19" s="8"/>
+      <c r="V19" s="7"/>
+      <c r="W19" s="8"/>
+      <c r="Y19" s="7"/>
+      <c r="Z19" s="7"/>
     </row>
     <row r="20" ht="102" customHeight="1" spans="9:26">
-      <c r="I20" s="9"/>
-      <c r="O20" s="9"/>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-      <c r="R20" s="9"/>
-      <c r="S20" s="9"/>
-      <c r="T20" s="9"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="9"/>
-      <c r="Y20" s="8"/>
-      <c r="Z20" s="8"/>
+      <c r="I20" s="8"/>
+      <c r="O20" s="8"/>
+      <c r="P20" s="8"/>
+      <c r="Q20" s="8"/>
+      <c r="R20" s="8"/>
+      <c r="S20" s="8"/>
+      <c r="T20" s="8"/>
+      <c r="V20" s="7"/>
+      <c r="W20" s="8"/>
+      <c r="Y20" s="7"/>
+      <c r="Z20" s="7"/>
     </row>
     <row r="21" ht="102" customHeight="1" spans="15:26">
-      <c r="O21" s="9"/>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-      <c r="R21" s="9"/>
-      <c r="S21" s="9"/>
-      <c r="T21" s="9"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="9"/>
-      <c r="Y21" s="8"/>
-      <c r="Z21" s="8"/>
+      <c r="O21" s="8"/>
+      <c r="P21" s="8"/>
+      <c r="Q21" s="8"/>
+      <c r="R21" s="8"/>
+      <c r="S21" s="8"/>
+      <c r="T21" s="8"/>
+      <c r="V21" s="7"/>
+      <c r="W21" s="8"/>
+      <c r="Y21" s="7"/>
+      <c r="Z21" s="7"/>
     </row>
     <row r="22" ht="102" customHeight="1" spans="15:26">
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="9"/>
-      <c r="Y22" s="8"/>
-      <c r="Z22" s="8"/>
+      <c r="O22" s="8"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="8"/>
+      <c r="S22" s="8"/>
+      <c r="T22" s="8"/>
+      <c r="V22" s="7"/>
+      <c r="W22" s="8"/>
+      <c r="Y22" s="7"/>
+      <c r="Z22" s="7"/>
     </row>
     <row r="23" ht="102" customHeight="1" spans="15:26">
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="9"/>
-      <c r="Y23" s="8"/>
-      <c r="Z23" s="8"/>
+      <c r="O23" s="8"/>
+      <c r="P23" s="8"/>
+      <c r="Q23" s="8"/>
+      <c r="R23" s="8"/>
+      <c r="S23" s="8"/>
+      <c r="T23" s="8"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="8"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
     </row>
     <row r="24" ht="102" customHeight="1" spans="15:26">
-      <c r="O24" s="9"/>
-      <c r="P24" s="9"/>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="9"/>
-      <c r="S24" s="9"/>
-      <c r="T24" s="9"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="9"/>
-      <c r="Y24" s="8"/>
-      <c r="Z24" s="8"/>
+      <c r="O24" s="8"/>
+      <c r="P24" s="8"/>
+      <c r="Q24" s="8"/>
+      <c r="R24" s="8"/>
+      <c r="S24" s="8"/>
+      <c r="T24" s="8"/>
+      <c r="V24" s="7"/>
+      <c r="W24" s="8"/>
+      <c r="Y24" s="7"/>
+      <c r="Z24" s="7"/>
     </row>
     <row r="25" ht="102" customHeight="1" spans="15:26">
-      <c r="O25" s="9"/>
-      <c r="P25" s="9"/>
-      <c r="Q25" s="9"/>
-      <c r="R25" s="9"/>
-      <c r="S25" s="9"/>
-      <c r="T25" s="9"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="9"/>
-      <c r="Y25" s="8"/>
-      <c r="Z25" s="8"/>
+      <c r="O25" s="8"/>
+      <c r="P25" s="8"/>
+      <c r="Q25" s="8"/>
+      <c r="R25" s="8"/>
+      <c r="S25" s="8"/>
+      <c r="T25" s="8"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="8"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
     </row>
     <row r="26" ht="102" customHeight="1" spans="9:26">
-      <c r="I26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="9"/>
-      <c r="Y26" s="8"/>
-      <c r="Z26" s="8"/>
+      <c r="I26" s="8"/>
+      <c r="O26" s="8"/>
+      <c r="P26" s="8"/>
+      <c r="Q26" s="8"/>
+      <c r="R26" s="8"/>
+      <c r="S26" s="8"/>
+      <c r="T26" s="8"/>
+      <c r="V26" s="7"/>
+      <c r="W26" s="8"/>
+      <c r="Y26" s="7"/>
+      <c r="Z26" s="7"/>
     </row>
     <row r="27" ht="102" customHeight="1" spans="15:26">
-      <c r="O27" s="9"/>
-      <c r="P27" s="9"/>
-      <c r="Q27" s="9"/>
-      <c r="R27" s="9"/>
-      <c r="S27" s="9"/>
-      <c r="T27" s="9"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="9"/>
-      <c r="Y27" s="8"/>
-      <c r="Z27" s="8"/>
+      <c r="O27" s="8"/>
+      <c r="P27" s="8"/>
+      <c r="Q27" s="8"/>
+      <c r="R27" s="8"/>
+      <c r="S27" s="8"/>
+      <c r="T27" s="8"/>
+      <c r="V27" s="7"/>
+      <c r="W27" s="8"/>
+      <c r="Y27" s="7"/>
+      <c r="Z27" s="7"/>
     </row>
     <row r="28" ht="102" customHeight="1" spans="15:26">
-      <c r="O28" s="9"/>
-      <c r="P28" s="9"/>
-      <c r="Q28" s="9"/>
-      <c r="R28" s="9"/>
-      <c r="S28" s="9"/>
-      <c r="T28" s="9"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="9"/>
-      <c r="Y28" s="8"/>
-      <c r="Z28" s="8"/>
+      <c r="O28" s="8"/>
+      <c r="P28" s="8"/>
+      <c r="Q28" s="8"/>
+      <c r="R28" s="8"/>
+      <c r="S28" s="8"/>
+      <c r="T28" s="8"/>
+      <c r="V28" s="7"/>
+      <c r="W28" s="8"/>
+      <c r="Y28" s="7"/>
+      <c r="Z28" s="7"/>
     </row>
     <row r="29" ht="102" customHeight="1" spans="15:26">
-      <c r="O29" s="9"/>
-      <c r="P29" s="9"/>
-      <c r="Q29" s="9"/>
-      <c r="R29" s="9"/>
-      <c r="S29" s="9"/>
-      <c r="T29" s="9"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="9"/>
-      <c r="Y29" s="8"/>
-      <c r="Z29" s="8"/>
+      <c r="O29" s="8"/>
+      <c r="P29" s="8"/>
+      <c r="Q29" s="8"/>
+      <c r="R29" s="8"/>
+      <c r="S29" s="8"/>
+      <c r="T29" s="8"/>
+      <c r="V29" s="7"/>
+      <c r="W29" s="8"/>
+      <c r="Y29" s="7"/>
+      <c r="Z29" s="7"/>
     </row>
     <row r="30" ht="102" customHeight="1" spans="15:26">
-      <c r="O30" s="9"/>
-      <c r="P30" s="9"/>
-      <c r="Q30" s="9"/>
-      <c r="R30" s="9"/>
-      <c r="S30" s="9"/>
-      <c r="T30" s="9"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="9"/>
-      <c r="Y30" s="8"/>
-      <c r="Z30" s="8"/>
+      <c r="O30" s="8"/>
+      <c r="P30" s="8"/>
+      <c r="Q30" s="8"/>
+      <c r="R30" s="8"/>
+      <c r="S30" s="8"/>
+      <c r="T30" s="8"/>
+      <c r="V30" s="7"/>
+      <c r="W30" s="8"/>
+      <c r="Y30" s="7"/>
+      <c r="Z30" s="7"/>
     </row>
     <row r="31" ht="102" customHeight="1" spans="9:26">
-      <c r="I31" s="9"/>
-      <c r="O31" s="9"/>
-      <c r="P31" s="9"/>
-      <c r="Q31" s="9"/>
-      <c r="R31" s="9"/>
-      <c r="S31" s="9"/>
-      <c r="T31" s="9"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="9"/>
-      <c r="Y31" s="8"/>
-      <c r="Z31" s="8"/>
+      <c r="I31" s="8"/>
+      <c r="O31" s="8"/>
+      <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
+      <c r="R31" s="8"/>
+      <c r="S31" s="8"/>
+      <c r="T31" s="8"/>
+      <c r="V31" s="7"/>
+      <c r="W31" s="8"/>
+      <c r="Y31" s="7"/>
+      <c r="Z31" s="7"/>
     </row>
     <row r="32" ht="102" customHeight="1" spans="9:26">
-      <c r="I32" s="9"/>
-      <c r="O32" s="9"/>
-      <c r="P32" s="9"/>
-      <c r="Q32" s="9"/>
-      <c r="R32" s="9"/>
-      <c r="S32" s="9"/>
-      <c r="T32" s="9"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="9"/>
-      <c r="Y32" s="8"/>
-      <c r="Z32" s="8"/>
+      <c r="I32" s="8"/>
+      <c r="O32" s="8"/>
+      <c r="P32" s="8"/>
+      <c r="Q32" s="8"/>
+      <c r="R32" s="8"/>
+      <c r="S32" s="8"/>
+      <c r="T32" s="8"/>
+      <c r="V32" s="7"/>
+      <c r="W32" s="8"/>
+      <c r="Y32" s="7"/>
+      <c r="Z32" s="7"/>
     </row>
     <row r="33" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B33" s="8"/>
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="14"/>
-      <c r="F33" s="14"/>
-      <c r="G33" s="14"/>
-      <c r="H33" s="8"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8"/>
-      <c r="L33" s="8"/>
-      <c r="M33" s="8"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="8"/>
-      <c r="R33" s="8"/>
-      <c r="S33" s="19"/>
-      <c r="T33" s="9"/>
-      <c r="U33" s="14"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="19"/>
-      <c r="Y33" s="14"/>
-      <c r="Z33" s="14"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="G33" s="13"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="18"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="18"/>
+      <c r="O33" s="18"/>
+      <c r="P33" s="8"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="18"/>
+      <c r="T33" s="8"/>
+      <c r="U33" s="13"/>
+      <c r="V33" s="7"/>
+      <c r="W33" s="18"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
     </row>
     <row r="34" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B34" s="8"/>
-      <c r="C34" s="8"/>
-      <c r="D34" s="8"/>
-      <c r="E34" s="14"/>
-      <c r="F34" s="14"/>
-      <c r="G34" s="14"/>
-      <c r="H34" s="8"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="8"/>
-      <c r="K34" s="8"/>
-      <c r="L34" s="8"/>
-      <c r="M34" s="8"/>
-      <c r="N34" s="19"/>
-      <c r="O34" s="9"/>
-      <c r="P34" s="9"/>
-      <c r="Q34" s="8"/>
-      <c r="R34" s="8"/>
-      <c r="S34" s="19"/>
-      <c r="T34" s="9"/>
-      <c r="U34" s="14"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="19"/>
-      <c r="Y34" s="14"/>
-      <c r="Z34" s="14"/>
+      <c r="B34" s="7"/>
+      <c r="C34" s="7"/>
+      <c r="D34" s="7"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="G34" s="13"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="18"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="18"/>
+      <c r="O34" s="8"/>
+      <c r="P34" s="8"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="18"/>
+      <c r="T34" s="8"/>
+      <c r="U34" s="13"/>
+      <c r="V34" s="7"/>
+      <c r="W34" s="18"/>
+      <c r="Y34" s="13"/>
+      <c r="Z34" s="13"/>
     </row>
     <row r="35" ht="102" customHeight="1" spans="9:26">
-      <c r="I35" s="9"/>
-      <c r="O35" s="9"/>
-      <c r="P35" s="9"/>
-      <c r="Q35" s="9"/>
-      <c r="R35" s="9"/>
-      <c r="S35" s="9"/>
-      <c r="T35" s="9"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="9"/>
-      <c r="Y35" s="8"/>
-      <c r="Z35" s="8"/>
+      <c r="I35" s="8"/>
+      <c r="O35" s="8"/>
+      <c r="P35" s="8"/>
+      <c r="Q35" s="8"/>
+      <c r="R35" s="8"/>
+      <c r="S35" s="8"/>
+      <c r="T35" s="8"/>
+      <c r="V35" s="7"/>
+      <c r="W35" s="8"/>
+      <c r="Y35" s="7"/>
+      <c r="Z35" s="7"/>
     </row>
     <row r="36" s="4" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B36" s="8"/>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="14"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="14"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="8"/>
-      <c r="K36" s="8"/>
-      <c r="L36" s="8"/>
-      <c r="M36" s="8"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="9"/>
-      <c r="P36" s="9"/>
-      <c r="Q36" s="8"/>
-      <c r="R36" s="8"/>
-      <c r="S36" s="19"/>
-      <c r="T36" s="8"/>
-      <c r="U36" s="14"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="19"/>
-      <c r="Y36" s="14"/>
-      <c r="Z36" s="14"/>
+      <c r="B36" s="7"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="13"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="18"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="18"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="18"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="13"/>
+      <c r="V36" s="7"/>
+      <c r="W36" s="18"/>
+      <c r="Y36" s="13"/>
+      <c r="Z36" s="13"/>
     </row>
     <row r="37" ht="102" customHeight="1" spans="9:26">
-      <c r="I37" s="9"/>
-      <c r="O37" s="9"/>
-      <c r="P37" s="9"/>
-      <c r="Q37" s="9"/>
-      <c r="R37" s="9"/>
-      <c r="S37" s="9"/>
-      <c r="T37" s="9"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="9"/>
-      <c r="Y37" s="8"/>
-      <c r="Z37" s="8"/>
+      <c r="I37" s="8"/>
+      <c r="O37" s="8"/>
+      <c r="P37" s="8"/>
+      <c r="Q37" s="8"/>
+      <c r="R37" s="8"/>
+      <c r="S37" s="8"/>
+      <c r="T37" s="8"/>
+      <c r="V37" s="7"/>
+      <c r="W37" s="8"/>
+      <c r="Y37" s="7"/>
+      <c r="Z37" s="7"/>
     </row>
     <row r="38" ht="102" customHeight="1" spans="15:26">
-      <c r="O38" s="9"/>
-      <c r="P38" s="9"/>
-      <c r="Q38" s="9"/>
-      <c r="R38" s="9"/>
-      <c r="S38" s="9"/>
-      <c r="T38" s="9"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="9"/>
-      <c r="Y38" s="8"/>
-      <c r="Z38" s="8"/>
+      <c r="O38" s="8"/>
+      <c r="P38" s="8"/>
+      <c r="Q38" s="8"/>
+      <c r="R38" s="8"/>
+      <c r="S38" s="8"/>
+      <c r="T38" s="8"/>
+      <c r="V38" s="7"/>
+      <c r="W38" s="8"/>
+      <c r="Y38" s="7"/>
+      <c r="Z38" s="7"/>
     </row>
     <row r="39" ht="102" customHeight="1" spans="15:26">
-      <c r="O39" s="9"/>
-      <c r="P39" s="9"/>
-      <c r="Q39" s="9"/>
-      <c r="R39" s="9"/>
-      <c r="S39" s="9"/>
-      <c r="T39" s="9"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="9"/>
-      <c r="Y39" s="8"/>
-      <c r="Z39" s="8"/>
+      <c r="O39" s="8"/>
+      <c r="P39" s="8"/>
+      <c r="Q39" s="8"/>
+      <c r="R39" s="8"/>
+      <c r="S39" s="8"/>
+      <c r="T39" s="8"/>
+      <c r="V39" s="7"/>
+      <c r="W39" s="8"/>
+      <c r="Y39" s="7"/>
+      <c r="Z39" s="7"/>
     </row>
     <row r="40" ht="102" customHeight="1" spans="15:26">
-      <c r="O40" s="9"/>
-      <c r="P40" s="9"/>
-      <c r="Q40" s="9"/>
-      <c r="R40" s="9"/>
-      <c r="S40" s="9"/>
-      <c r="T40" s="9"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="9"/>
-      <c r="Y40" s="8"/>
-      <c r="Z40" s="8"/>
+      <c r="O40" s="8"/>
+      <c r="P40" s="8"/>
+      <c r="Q40" s="8"/>
+      <c r="R40" s="8"/>
+      <c r="S40" s="8"/>
+      <c r="T40" s="8"/>
+      <c r="V40" s="7"/>
+      <c r="W40" s="8"/>
+      <c r="Y40" s="7"/>
+      <c r="Z40" s="7"/>
     </row>
     <row r="41" ht="102" customHeight="1" spans="15:26">
-      <c r="O41" s="9"/>
-      <c r="P41" s="9"/>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="9"/>
-      <c r="Y41" s="8"/>
-      <c r="Z41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="8"/>
+      <c r="Q41" s="8"/>
+      <c r="R41" s="8"/>
+      <c r="S41" s="8"/>
+      <c r="T41" s="8"/>
+      <c r="V41" s="7"/>
+      <c r="W41" s="8"/>
+      <c r="Y41" s="7"/>
+      <c r="Z41" s="7"/>
     </row>
     <row r="42" s="6" customFormat="1" ht="102" customHeight="1" spans="2:26">
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="F42" s="15"/>
-      <c r="G42" s="15"/>
-      <c r="H42" s="15"/>
-      <c r="I42" s="15"/>
-      <c r="J42" s="15"/>
-      <c r="K42" s="15"/>
-      <c r="L42" s="15"/>
-      <c r="M42" s="15"/>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="15"/>
-      <c r="V42" s="15"/>
-      <c r="W42" s="21"/>
-      <c r="Y42" s="15"/>
-      <c r="Z42" s="15"/>
+      <c r="B42" s="14"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="14"/>
+      <c r="F42" s="14"/>
+      <c r="G42" s="14"/>
+      <c r="H42" s="14"/>
+      <c r="I42" s="14"/>
+      <c r="J42" s="14"/>
+      <c r="K42" s="14"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="14"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="19"/>
+      <c r="P42" s="19"/>
+      <c r="Q42" s="19"/>
+      <c r="R42" s="19"/>
+      <c r="S42" s="19"/>
+      <c r="T42" s="19"/>
+      <c r="U42" s="14"/>
+      <c r="V42" s="14"/>
+      <c r="W42" s="19"/>
+      <c r="Y42" s="14"/>
+      <c r="Z42" s="14"/>
     </row>
     <row r="43" ht="102" customHeight="1" spans="15:26">
-      <c r="O43" s="9"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="9"/>
-      <c r="Y43" s="8"/>
-      <c r="Z43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="V43" s="7"/>
+      <c r="W43" s="8"/>
+      <c r="Y43" s="7"/>
+      <c r="Z43" s="7"/>
     </row>
     <row r="44" ht="102" customHeight="1" spans="15:26">
-      <c r="O44" s="9"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-      <c r="R44" s="9"/>
-      <c r="S44" s="9"/>
-      <c r="T44" s="9"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="9"/>
-      <c r="Y44" s="8"/>
-      <c r="Z44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+      <c r="R44" s="8"/>
+      <c r="S44" s="8"/>
+      <c r="T44" s="8"/>
+      <c r="V44" s="7"/>
+      <c r="W44" s="8"/>
+      <c r="Y44" s="7"/>
+      <c r="Z44" s="7"/>
     </row>
     <row r="45" ht="102" customHeight="1" spans="15:26">
-      <c r="O45" s="9"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-      <c r="R45" s="9"/>
-      <c r="S45" s="9"/>
-      <c r="T45" s="9"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="9"/>
-      <c r="Y45" s="8"/>
-      <c r="Z45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+      <c r="R45" s="8"/>
+      <c r="S45" s="8"/>
+      <c r="T45" s="8"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="8"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
     </row>
     <row r="46" ht="102" customHeight="1" spans="15:26">
-      <c r="O46" s="9"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
-      <c r="R46" s="9"/>
-      <c r="S46" s="9"/>
-      <c r="T46" s="9"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="9"/>
-      <c r="Y46" s="8"/>
-      <c r="Z46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+      <c r="R46" s="8"/>
+      <c r="S46" s="8"/>
+      <c r="T46" s="8"/>
+      <c r="V46" s="7"/>
+      <c r="W46" s="8"/>
+      <c r="Y46" s="7"/>
+      <c r="Z46" s="7"/>
     </row>
     <row r="47" ht="102" customHeight="1" spans="15:26">
-      <c r="O47" s="9"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
-      <c r="R47" s="9"/>
-      <c r="S47" s="9"/>
-      <c r="T47" s="9"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="9"/>
-      <c r="Y47" s="8"/>
-      <c r="Z47" s="8"/>
+      <c r="O47" s="8"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
+      <c r="R47" s="8"/>
+      <c r="S47" s="8"/>
+      <c r="T47" s="8"/>
+      <c r="V47" s="7"/>
+      <c r="W47" s="8"/>
+      <c r="Y47" s="7"/>
+      <c r="Z47" s="7"/>
     </row>
     <row r="48" ht="102" customHeight="1" spans="15:26">
-      <c r="O48" s="9"/>
-      <c r="P48" s="9"/>
-      <c r="Q48" s="9"/>
-      <c r="R48" s="9"/>
-      <c r="S48" s="9"/>
-      <c r="T48" s="9"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="9"/>
-      <c r="Y48" s="8"/>
-      <c r="Z48" s="8"/>
+      <c r="O48" s="8"/>
+      <c r="P48" s="8"/>
+      <c r="Q48" s="8"/>
+      <c r="R48" s="8"/>
+      <c r="S48" s="8"/>
+      <c r="T48" s="8"/>
+      <c r="V48" s="7"/>
+      <c r="W48" s="8"/>
+      <c r="Y48" s="7"/>
+      <c r="Z48" s="7"/>
     </row>
     <row r="49" ht="102" customHeight="1" spans="15:26">
-      <c r="O49" s="9"/>
-      <c r="P49" s="9"/>
-      <c r="Q49" s="9"/>
-      <c r="R49" s="9"/>
-      <c r="S49" s="9"/>
-      <c r="T49" s="9"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="9"/>
-      <c r="Y49" s="8"/>
-      <c r="Z49" s="8"/>
+      <c r="O49" s="8"/>
+      <c r="P49" s="8"/>
+      <c r="Q49" s="8"/>
+      <c r="R49" s="8"/>
+      <c r="S49" s="8"/>
+      <c r="T49" s="8"/>
+      <c r="V49" s="7"/>
+      <c r="W49" s="8"/>
+      <c r="Y49" s="7"/>
+      <c r="Z49" s="7"/>
     </row>
     <row r="50" ht="102" customHeight="1" spans="15:26">
-      <c r="O50" s="9"/>
-      <c r="P50" s="9"/>
-      <c r="Q50" s="9"/>
-      <c r="R50" s="9"/>
-      <c r="S50" s="9"/>
-      <c r="T50" s="9"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="9"/>
-      <c r="Y50" s="8"/>
-      <c r="Z50" s="8"/>
+      <c r="O50" s="8"/>
+      <c r="P50" s="8"/>
+      <c r="Q50" s="8"/>
+      <c r="R50" s="8"/>
+      <c r="S50" s="8"/>
+      <c r="T50" s="8"/>
+      <c r="V50" s="7"/>
+      <c r="W50" s="8"/>
+      <c r="Y50" s="7"/>
+      <c r="Z50" s="7"/>
     </row>
     <row r="51" ht="102" customHeight="1" spans="15:26">
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
-      <c r="R51" s="9"/>
-      <c r="S51" s="9"/>
-      <c r="T51" s="9"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="9"/>
-      <c r="Y51" s="8"/>
-      <c r="Z51" s="8"/>
+      <c r="O51" s="8"/>
+      <c r="P51" s="8"/>
+      <c r="Q51" s="8"/>
+      <c r="R51" s="8"/>
+      <c r="S51" s="8"/>
+      <c r="T51" s="8"/>
+      <c r="V51" s="7"/>
+      <c r="W51" s="8"/>
+      <c r="Y51" s="7"/>
+      <c r="Z51" s="7"/>
     </row>
     <row r="52" ht="102" customHeight="1" spans="15:26">
-      <c r="O52" s="9"/>
-      <c r="P52" s="9"/>
-      <c r="Q52" s="9"/>
-      <c r="R52" s="9"/>
-      <c r="S52" s="9"/>
-      <c r="T52" s="9"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="9"/>
-      <c r="Y52" s="8"/>
-      <c r="Z52" s="8"/>
+      <c r="O52" s="8"/>
+      <c r="P52" s="8"/>
+      <c r="Q52" s="8"/>
+      <c r="R52" s="8"/>
+      <c r="S52" s="8"/>
+      <c r="T52" s="8"/>
+      <c r="V52" s="7"/>
+      <c r="W52" s="8"/>
+      <c r="Y52" s="7"/>
+      <c r="Z52" s="7"/>
     </row>
     <row r="53" ht="102" customHeight="1" spans="15:26">
-      <c r="O53" s="9"/>
-      <c r="P53" s="9"/>
-      <c r="Q53" s="9"/>
-      <c r="R53" s="9"/>
-      <c r="S53" s="9"/>
-      <c r="T53" s="9"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="9"/>
-      <c r="Y53" s="8"/>
-      <c r="Z53" s="8"/>
+      <c r="O53" s="8"/>
+      <c r="P53" s="8"/>
+      <c r="Q53" s="8"/>
+      <c r="R53" s="8"/>
+      <c r="S53" s="8"/>
+      <c r="T53" s="8"/>
+      <c r="V53" s="7"/>
+      <c r="W53" s="8"/>
+      <c r="Y53" s="7"/>
+      <c r="Z53" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="6">
